--- a/biology/Neurosciences/Étienne_Hirsch_(neurobiologiste)/Étienne_Hirsch_(neurobiologiste).xlsx
+++ b/biology/Neurosciences/Étienne_Hirsch_(neurobiologiste)/Étienne_Hirsch_(neurobiologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Hirsch_(neurobiologiste)</t>
+          <t>Étienne_Hirsch_(neurobiologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne C. Hirsch, né le 18 mars 1958[1], est un neurobiologiste français, directeur de recherche au CNRS et à l'INSERM, spécialisé dans la maladie de Parkinson.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne C. Hirsch, né le 18 mars 1958, est un neurobiologiste français, directeur de recherche au CNRS et à l'INSERM, spécialisé dans la maladie de Parkinson.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Hirsch_(neurobiologiste)</t>
+          <t>Étienne_Hirsch_(neurobiologiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Débuts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a soutenu en 1988 à l'université Paris 6 une thèse en sciences de la vie intitulée Approche physiopathologique de la maladie de Parkinson : Analyse immunocytochimique du système mésostriatal et caractérisation de deux antigènes du corps de Lewy.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Hirsch_(neurobiologiste)</t>
+          <t>Étienne_Hirsch_(neurobiologiste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Membre de sociétés savantes et de comités scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2007-2009 : Président du conseil scientifique de la Fédération pour la recherche sur le cerveau
-2007-2009 : Président de la Société des neurosciences[2]
+2007-2009 : Président de la Société des neurosciences
 Nommé à l'INSERM :
-en 1995-1999, en qualité de membre élu de la commission scientifique spécialisée no 5 : Neurosciences A (mécanismes moléculaires et cellulaires des maladies du système nerveux ; maladies des organes des sens et du muscle)[3]
-en 2003-2007, en qualité de membre élu de la commission scientifique spécialisée no 8 : Neurosciences et organes des sens[4]
-en 2008-2012, en qualité de membre élu du conseil scientifique[5]</t>
+en 1995-1999, en qualité de membre élu de la commission scientifique spécialisée no 5 : Neurosciences A (mécanismes moléculaires et cellulaires des maladies du système nerveux ; maladies des organes des sens et du muscle)
+en 2003-2007, en qualité de membre élu de la commission scientifique spécialisée no 8 : Neurosciences et organes des sens
+en 2008-2012, en qualité de membre élu du conseil scientifique</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Hirsch_(neurobiologiste)</t>
+          <t>Étienne_Hirsch_(neurobiologiste)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,14 +593,16 @@
           <t>Membre de comités de lecture de revues scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Neuroscience (rédacteur en chef adjoint)[6]
-Journal of Neural Transmission (spécialisé dans les désordres du mouvement)[7]
-Journal of Neurochemistry (commission consultative d'évaluation)[8]
-Dementia and Geriatric Cognitive Disorders[9]
-Synapse[10]
-Frontiers in Neuroanatomy[11]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Neuroscience (rédacteur en chef adjoint)
+Journal of Neural Transmission (spécialisé dans les désordres du mouvement)
+Journal of Neurochemistry (commission consultative d'évaluation)
+Dementia and Geriatric Cognitive Disorders
+Synapse
+Frontiers in Neuroanatomy</t>
         </is>
       </c>
     </row>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Hirsch_(neurobiologiste)</t>
+          <t>Étienne_Hirsch_(neurobiologiste)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,11 +630,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1986 : Tourette Syndrome Association Award[12]
-1990 : Young Researcher Award, de l'European Society for Neurochemistry[12]
-1999 : Grand Prix de l'Académie des sciences / Fondation pour la recherche biomédicale (PCL) (maladie de Parkinson, prix François-Lhermitte)[13]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1986 : Tourette Syndrome Association Award
+1990 : Young Researcher Award, de l'European Society for Neurochemistry
+1999 : Grand Prix de l'Académie des sciences / Fondation pour la recherche biomédicale (PCL) (maladie de Parkinson, prix François-Lhermitte)</t>
         </is>
       </c>
     </row>
